--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\Desktop\v3d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD31DEFA-FFCA-45F6-B993-FD7982529078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CE67C-FB0E-45E3-9A77-5AB5A2C17D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>STEP</t>
   </si>
@@ -120,9 +120,6 @@
     </r>
   </si>
   <si>
-    <t>Image similarity</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">run method called: </t>
     </r>
@@ -182,6 +179,61 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">program reads the path where to save teh final weight file (on the google drive),  the feature vector path and training information such as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">epochs, batch size, img size, </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">programs runs data augmentation. </t>
+  </si>
+  <si>
+    <t>train.py is run</t>
+  </si>
+  <si>
+    <t>it will take some time, depending on the amount of images. The main results of training are (1) the confusion matrix: ideal if diagonal value very high close to 1 and elements off the diagonal very low, but not 0;  (2) Precision recall curve;                      (3) decreasing validation learning curve; (4) clear learning bbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight file is saved at the path specified in the asset yaml file. </t>
+  </si>
+  <si>
+    <t>DETECTION</t>
+  </si>
+  <si>
+    <t>the program reads a general conf file where he reads the available assets and asks you to choose which asset user  wants for detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user chooses the asset. </t>
+  </si>
+  <si>
+    <t>Program retrieves the weight file and the feature vector file at the path specified in the asset conf file. The weight file is used for finding object in the video and to correctly classify them. Feature vector is used to suggest at the user new image to add at the training dataset</t>
+  </si>
+  <si>
+    <t>detection is run. In the same time 3 processes (in sequence) are run: (1)detection (2)tracking (3)image similarity</t>
+  </si>
+  <si>
+    <t>(1) detection: find objects and write on the video a rectangular sourrunding the detected object; also assign the class name. (2) tracking: for each obj detected, the tracker assign an unique ID. It tries to  follow the objects frame by frame. (3) every N frames, check similarity is computed</t>
+  </si>
+  <si>
+    <t>(1) the results of detection is a video. (2) the results of the tracker are 2 json files, one containing general info, hence how many objects of a certain class were present, and another mode detailed, reporting for each detected objetc in which second of the video was; (3) the results of check similarities is a folder containing the frames from the video that are suggested to be labeled in order to increase the trainning dataset. If this folder is empty, a message is print out to the user telling that no images should be added from the current video.</t>
+  </si>
+  <si>
+    <t>(1) in detection only obj detected with confidence&gt;0.5 are kept. (2) the tracker assign ID based on the position of centroid of objects belonging to the same class. If  the dist of centroids in consecutive frames is &lt; th: it is considered the same obj and no new ID is assigned. (3) check similarity does not work for each frame in the video: it would be slow and unecessary; indeed, if a frame is similar, it is probable that also the next frame is similar. Since we want only not similar images, the similarity is checked each N, where N is a high number (2 times the fps of the video)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call Image similarity before labeling. </t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">If </t>
     </r>
     <r>
@@ -245,11 +297,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> this means that we already have the feature vectors of images and we only need to check similar images and remove them </t>
-    </r>
-  </si>
-  <si>
-    <t>What if we place the check similarity before labeling?</t>
+      <t xml:space="preserve"> this means that we already have the feature vectors of images and we only need to check similar images and remove them. T</t>
+    </r>
   </si>
   <si>
     <r>
@@ -313,67 +362,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(=1-cosine distance). Feat vectors are saved in matrix form in a txt file at  the specified path. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">program reads the path where to save teh final weight file (on the google drive),  the feature vector path and training information such as: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">epochs, batch size, img size, </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">programs runs data augmentation. </t>
-  </si>
-  <si>
-    <t>train.py is run</t>
-  </si>
-  <si>
-    <t>it will take some time, depending on the amount of images. The main results of training are (1) the confusion matrix: ideal if diagonal value very high close to 1 and elements off the diagonal very low, but not 0;  (2) Precision recall curve;                      (3) decreasing validation learning curve; (4) clear learning bbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight file is saved at the path specified in the asset yaml file. </t>
-  </si>
-  <si>
-    <t>DETECTION</t>
-  </si>
-  <si>
-    <t>the program reads a general conf file where he reads the available assets and asks you to choose which asset user  wants for detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user chooses the asset. </t>
-  </si>
-  <si>
-    <t>Program retrieves the weight file and the feature vector file at the path specified in the asset conf file. The weight file is used for finding object in the video and to correctly classify them. Feature vector is used to suggest at the user new image to add at the training dataset</t>
-  </si>
-  <si>
-    <t>detection is run. In the same time 3 processes (in sequence) are run: (1)detection (2)tracking (3)image similarity</t>
-  </si>
-  <si>
-    <t>(1) detection: find objects and write on the video a rectangular sourrunding the detected object; also assign the class name. (2) tracking: for each obj detected, the tracker assign an unique ID. It tries to  follow the objects frame by frame. (3) every N frames, check similarity is computed</t>
-  </si>
-  <si>
-    <t>(1) the results of detection is a video. (2) the results of the tracker are 2 json files, one containing general info, hence how many objects of a certain class were present, and another mode detailed, reporting for each detected objetc in which second of the video was; (3) the results of check similarities is a folder containing the frames from the video that are suggested to be labeled in order to increase the trainning dataset. If this folder is empty, a message is print out to the user telling that no images should be added from the current video.</t>
-  </si>
-  <si>
-    <t>(1) in detection only obj detected with confidence&gt;0.5 are kept. (2) the tracker assign ID based on the position of centroid of objects belonging to the same class. If  the dist of centroids in consecutive frames is &lt; th: it is considered the same obj and no new ID is assigned. (3) check similarity does not work for each frame in the video: it would be slow and unecessary; indeed, if a frame is similar, it is probable that also the next frame is similar. Since we want only not similar images, the similarity is checked each N, where N is a high number (2 times the fps of the video)</t>
+      <t>(=1-cosine distance). Feat vectors are saved in matrix form in a txt file at  the specified path. Image similar are discarded; images not similar are kept and the feat vectors are saved at the path specified in the yaml file</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,13 +388,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,11 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -472,25 +457,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
@@ -500,11 +481,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Neutrale" xfId="4" builtinId="28"/>
+  <cellStyles count="4">
+    <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Titolo" xfId="1" builtinId="15"/>
-    <cellStyle name="Valore non valido" xfId="3" builtinId="27"/>
     <cellStyle name="Valore valido" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,13 +504,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2757486</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1066800</xdr:rowOff>
@@ -568,59 +548,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2420979</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1363777</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Immagine 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583D54E-6426-404C-885E-F0653198C718}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9820275" y="409576"/>
-          <a:ext cx="2344779" cy="1333500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2897187</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>345861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -637,7 +573,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -646,6 +582,94 @@
         <a:xfrm>
           <a:off x="8318500" y="9572625"/>
           <a:ext cx="2595562" cy="1822236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2592429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1411401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74C41A5-C724-4200-934F-5F8940C80CFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14630400" y="457200"/>
+          <a:ext cx="2344779" cy="1335201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295957</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1959736</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1496786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5B7E0D-6878-493E-A962-5A554ACD0BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11698743" y="5061858"/>
+          <a:ext cx="4630136" cy="1387928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -954,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -966,31 +990,35 @@
     <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="25.7109375" style="1"/>
+    <col min="6" max="6" width="44.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="25.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1000,11 +1028,11 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,115 +1051,113 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="17" spans="5:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CE67C-FB0E-45E3-9A77-5AB5A2C17D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C2F740-1C66-4E2A-AE9E-175F0AEAF1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>STEP</t>
   </si>
   <si>
-    <t>SUB STEP</t>
-  </si>
-  <si>
     <t>DETAILS</t>
   </si>
   <si>
@@ -364,13 +361,16 @@
       </rPr>
       <t>(=1-cosine distance). Feat vectors are saved in matrix form in a txt file at  the specified path. Image similar are discarded; images not similar are kept and the feat vectors are saved at the path specified in the yaml file</t>
     </r>
+  </si>
+  <si>
+    <t>SUB STEPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,8 +429,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +454,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -457,13 +470,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -480,8 +494,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="40% - Colore 1" xfId="4" builtinId="31"/>
     <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Titolo" xfId="1" builtinId="15"/>
@@ -978,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -995,165 +1016,166 @@
     <col min="8" max="16384" width="25.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C2F740-1C66-4E2A-AE9E-175F0AEAF1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D521810-CBBC-495A-A172-E819443C7319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>STEP</t>
   </si>
@@ -59,9 +59,6 @@
     <t>when the user chooses the asset, the program loads the labels for that asset.</t>
   </si>
   <si>
-    <t>program asks to choose the folder containing the images he wants to label</t>
-  </si>
-  <si>
     <t xml:space="preserve">given the folder, the program automatically lunch the GUI for labeling uploading the images. </t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t xml:space="preserve">when user labels an image, before proceiding to the next image (next image button) he needs to save the annotation. This is saved in the same folder of the images. </t>
   </si>
   <si>
-    <t>If user uses a filder with images already labeled, he can see the rectangles on the image. Labels can be edited (both position than type)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> the conf file stores for each available asset the relevant path to the conf file of the asset. This second file (unique for each asset), contains info such as: class_names, path for train, test and valid pictures,  path for weight file, path for feature vector file </t>
   </si>
   <si>
@@ -364,13 +358,88 @@
   </si>
   <si>
     <t>SUB STEPS</t>
+  </si>
+  <si>
+    <t>If user uses a folder with images already labeled, he can see the rectangles on the image. Labels can be edited (both position than type)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if the folder contains images the program lunch directly the GUI for labeling; otherwise, he calls </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fragmentation</t>
+    </r>
+  </si>
+  <si>
+    <t>program asks to choose the folder containing the data he wants to label</t>
+  </si>
+  <si>
+    <t>FRAGMENTATION</t>
+  </si>
+  <si>
+    <r>
+      <t>The program takes 1 frames each second from the provided video. The images are saved as year-month-day-hour-minute_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>original.jpg.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The image are saved in a folder named as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>videoName_frames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The fragmentation method returns the path of the just created frames.</t>
+    </r>
+  </si>
+  <si>
+    <t>Return to labeling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,8 +505,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,8 +545,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -469,26 +560,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -500,12 +596,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="40% - Colore 1" xfId="4" builtinId="31"/>
+    <cellStyle name="60% - Colore 4" xfId="6" builtinId="44"/>
     <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Titolo" xfId="1" builtinId="15"/>
+    <cellStyle name="Titolo 1" xfId="5" builtinId="16"/>
     <cellStyle name="Valore valido" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,13 +644,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2757486</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1066800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -571,13 +688,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2897187</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>345861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -615,13 +732,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2592429</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1411401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -659,13 +776,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295957</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1959736</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1496786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -999,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1017,169 +1134,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5"/>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>20</v>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D521810-CBBC-495A-A172-E819443C7319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275EA066-C633-4CB7-AC5E-FA3429904EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>OPEN ISSUES</t>
   </si>
   <si>
-    <t>lunch labelimg tool</t>
-  </si>
-  <si>
     <t>the program reads a general conf file where he reads the available assets and asks you to choose which asset you want to use for labeling</t>
   </si>
   <si>
@@ -292,6 +289,21 @@
     </r>
   </si>
   <si>
+    <t>SUB STEPS</t>
+  </si>
+  <si>
+    <t>If user uses a folder with images already labeled, he can see the rectangles on the image. Labels can be edited (both position than type)</t>
+  </si>
+  <si>
+    <t>program asks to choose the folder containing the data he wants to label</t>
+  </si>
+  <si>
+    <t>FRAGMENTATION</t>
+  </si>
+  <si>
+    <r>
+      <t>The program takes 1 frames each second from the provided video. The images are saved as year-month-day-hour-minute_</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -301,17 +313,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">to vectorize: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for now we use VGG16 Neural network; it creates a vector of 4096 elements for each image. </t>
+      <t>original.jpg.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The image are saved in a folder named as: </t>
     </r>
     <r>
       <rPr>
@@ -322,49 +334,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">To check similarity: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">we use </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">cosine similarity </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(=1-cosine distance). Feat vectors are saved in matrix form in a txt file at  the specified path. Image similar are discarded; images not similar are kept and the feat vectors are saved at the path specified in the yaml file</t>
-    </r>
-  </si>
-  <si>
-    <t>SUB STEPS</t>
-  </si>
-  <si>
-    <t>If user uses a folder with images already labeled, he can see the rectangles on the image. Labels can be edited (both position than type)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">if the folder contains images the program lunch directly the GUI for labeling; otherwise, he calls </t>
+      <t>videoName_frames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The fragmentation method returns the path of the just created frames.</t>
+    </r>
+  </si>
+  <si>
+    <t>Return to labeling</t>
+  </si>
+  <si>
+    <t>launch labelimg tool</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if the folder contains images the program launch directly the GUI for labeling; otherwise, he calls </t>
     </r>
     <r>
       <rPr>
@@ -379,15 +370,6 @@
     </r>
   </si>
   <si>
-    <t>program asks to choose the folder containing the data he wants to label</t>
-  </si>
-  <si>
-    <t>FRAGMENTATION</t>
-  </si>
-  <si>
-    <r>
-      <t>The program takes 1 frames each second from the provided video. The images are saved as year-month-day-hour-minute_</t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -397,17 +379,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>original.jpg.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The image are saved in a folder named as: </t>
+      <t xml:space="preserve">to vectorize: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for now we use VGG16 Neural network; it creates a vector of 4096 elements for each image. </t>
     </r>
     <r>
       <rPr>
@@ -418,21 +400,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>videoName_frames</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. The fragmentation method returns the path of the just created frames.</t>
-    </r>
-  </si>
-  <si>
-    <t>Return to labeling</t>
+      <t xml:space="preserve">To check similarity: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">we use </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cosine similarity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(=1-cosine distance). Feat vectors are saved in matrix form in a txt file at  the specified path. Image similar are discarded; images not similar are kept and the feat vectors are saved at the path specified in the yaml file. Images are considered similar if cosine similarity&gt;0.95</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1147,10 +1147,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -1167,127 +1167,127 @@
     </row>
     <row r="3" spans="1:9" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1296,32 +1296,32 @@
     </row>
     <row r="19" spans="1:7" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="156" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275EA066-C633-4CB7-AC5E-FA3429904EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D25687-3FF1-42EE-AA14-8FF476252848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
   </bookViews>
@@ -203,9 +203,6 @@
     <t xml:space="preserve">user chooses the asset. </t>
   </si>
   <si>
-    <t>Program retrieves the weight file and the feature vector file at the path specified in the asset conf file. The weight file is used for finding object in the video and to correctly classify them. Feature vector is used to suggest at the user new image to add at the training dataset</t>
-  </si>
-  <si>
     <t>detection is run. In the same time 3 processes (in sequence) are run: (1)detection (2)tracking (3)image similarity</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>(1) the results of detection is a video. (2) the results of the tracker are 2 json files, one containing general info, hence how many objects of a certain class were present, and another mode detailed, reporting for each detected objetc in which second of the video was; (3) the results of check similarities is a folder containing the frames from the video that are suggested to be labeled in order to increase the trainning dataset. If this folder is empty, a message is print out to the user telling that no images should be added from the current video.</t>
   </si>
   <si>
-    <t>(1) in detection only obj detected with confidence&gt;0.5 are kept. (2) the tracker assign ID based on the position of centroid of objects belonging to the same class. If  the dist of centroids in consecutive frames is &lt; th: it is considered the same obj and no new ID is assigned. (3) check similarity does not work for each frame in the video: it would be slow and unecessary; indeed, if a frame is similar, it is probable that also the next frame is similar. Since we want only not similar images, the similarity is checked each N, where N is a high number (2 times the fps of the video)</t>
-  </si>
-  <si>
     <t xml:space="preserve">call Image similarity before labeling. </t>
   </si>
   <si>
@@ -432,6 +426,58 @@
         <scheme val="minor"/>
       </rPr>
       <t>(=1-cosine distance). Feat vectors are saved in matrix form in a txt file at  the specified path. Image similar are discarded; images not similar are kept and the feat vectors are saved at the path specified in the yaml file. Images are considered similar if cosine similarity&gt;0.95</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) in detection only obj detected with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confidence&gt;0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are kept. (2) the tracker assign ID based on the position of centroid of objects belonging to the same class. If  the dist of centroids in consecutive frames is &lt; th: it is considered the same obj and no new ID is assigned. (3) check similarity does not work for each frame in the video: it would be slow and unecessary; indeed, if a frame is similar, it is probable that also the next frame is similar. Since we want only not similar images, the similarity is checked each N, where N is a high number (2 times the fps of the video)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Program reads the path for weight file and the path for feature vector file set in conf file. The path for the weight file leads to a folder containing many weights; the program selects the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most recent weight file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The weight file is used for finding object in the video and to correctly classify them. Feature vector is used to suggest at the user new image to add at the training dataset</t>
     </r>
   </si>
 </sst>
@@ -1118,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1167,7 +1213,7 @@
     </row>
     <row r="3" spans="1:9" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1190,46 +1236,46 @@
     </row>
     <row r="5" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9"/>
     </row>
@@ -1294,7 +1340,7 @@
       <c r="A18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
@@ -1302,26 +1348,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="144" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="156" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D25687-3FF1-42EE-AA14-8FF476252848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E449BD-7815-4870-A180-A705CE2D51C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>STEP</t>
   </si>
@@ -478,6 +478,110 @@
         <scheme val="minor"/>
       </rPr>
       <t>. The weight file is used for finding object in the video and to correctly classify them. Feature vector is used to suggest at the user new image to add at the training dataset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">at the end of the detection, the program asks the user if he wants to see the suggested images for labeling. For each of those image, also the annotation file exists (which comes from the detection part). If user select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the program launch labelimage tool </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">in this case, the labeling tool upload the images at the specified folder. There, it also finds the annotation (boxes on the objects) for each image, and the user can edit those labels or add more. </t>
+  </si>
+  <si>
+    <t>labeling tool is launched (open issue)</t>
+  </si>
+  <si>
+    <t>OPEN ISSUE: for now, we can't  launch the labelimg tool after detection in autonomous way. Moreover, even if e launch it manually, there is some error (I think the error is with the format of the txt file)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when the image is labeled, it should be saved in a folder where all the temporary images are saved. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path of this temporary folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is contained in the  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>configuration file of the specific asset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This folder contains all the images aiming at increasing the dataset size, but will actually be added at the training set when the amount of images overcomes a threshold (1000 images per class maybe, not decided yet). </t>
+    </r>
+  </si>
+  <si>
+    <t>when launching, we need to pass: (1) yaml file of the asset; (2) path of images to be labeled</t>
+  </si>
+  <si>
+    <t>the labeled images are saved in a folder whose path is read from the yaml file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the yaml file is used for: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read the classes, read the path where to save the final labeled images</t>
     </r>
   </si>
 </sst>
@@ -485,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,8 +671,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,6 +708,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -616,7 +732,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -624,8 +740,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -661,14 +778,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Colore 1" xfId="4" builtinId="31"/>
     <cellStyle name="60% - Colore 4" xfId="6" builtinId="44"/>
     <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Titolo" xfId="1" builtinId="15"/>
     <cellStyle name="Titolo 1" xfId="5" builtinId="16"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27"/>
     <cellStyle name="Valore valido" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1162,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1495,37 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E449BD-7815-4870-A180-A705CE2D51C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4363E-7FF6-4D2B-BEC7-CB57362937F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>STEP</t>
   </si>
@@ -86,12 +86,6 @@
     <t xml:space="preserve">program asks to choose which model to train based on the asset available in general conf file.  </t>
   </si>
   <si>
-    <t>program reads the conf file of the chosen assets and reads if that asset has been already trained</t>
-  </si>
-  <si>
-    <t>there is a field 'already trained' that is a boolean.  If the value is False, the normal training is carried out</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">before training, lunch </t>
     </r>
@@ -166,8 +160,411 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">program reads the path where to save teh final weight file (on the google drive),  the feature vector path and training information such as: </t>
+    <t xml:space="preserve">programs runs data augmentation. </t>
+  </si>
+  <si>
+    <t>train.py is run</t>
+  </si>
+  <si>
+    <t>it will take some time, depending on the amount of images. The main results of training are (1) the confusion matrix: ideal if diagonal value very high close to 1 and elements off the diagonal very low, but not 0;  (2) Precision recall curve;                      (3) decreasing validation learning curve; (4) clear learning bbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight file is saved at the path specified in the asset yaml file. </t>
+  </si>
+  <si>
+    <t>DETECTION</t>
+  </si>
+  <si>
+    <t>the program reads a general conf file where he reads the available assets and asks you to choose which asset user  wants for detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user chooses the asset. </t>
+  </si>
+  <si>
+    <t>detection is run. In the same time 3 processes (in sequence) are run: (1)detection (2)tracking (3)image similarity</t>
+  </si>
+  <si>
+    <t>(1) detection: find objects and write on the video a rectangular sourrunding the detected object; also assign the class name. (2) tracking: for each obj detected, the tracker assign an unique ID. It tries to  follow the objects frame by frame. (3) every N frames, check similarity is computed</t>
+  </si>
+  <si>
+    <t>(1) the results of detection is a video. (2) the results of the tracker are 2 json files, one containing general info, hence how many objects of a certain class were present, and another mode detailed, reporting for each detected objetc in which second of the video was; (3) the results of check similarities is a folder containing the frames from the video that are suggested to be labeled in order to increase the trainning dataset. If this folder is empty, a message is print out to the user telling that no images should be added from the current video.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call Image similarity before labeling. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create_feat = True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the method iteratively creates the vectors for the images in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>img_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and save in a temp matrix only if different, otherwise it deletes the image directly. If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create_feat=False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this means that we already have the feature vectors of images and we only need to check similar images and remove them. T</t>
+    </r>
+  </si>
+  <si>
+    <t>SUB STEPS</t>
+  </si>
+  <si>
+    <t>If user uses a folder with images already labeled, he can see the rectangles on the image. Labels can be edited (both position than type)</t>
+  </si>
+  <si>
+    <t>program asks to choose the folder containing the data he wants to label</t>
+  </si>
+  <si>
+    <t>FRAGMENTATION</t>
+  </si>
+  <si>
+    <r>
+      <t>The program takes 1 frames each second from the provided video. The images are saved as year-month-day-hour-minute_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>original.jpg.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The image are saved in a folder named as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>videoName_frames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The fragmentation method returns the path of the just created frames.</t>
+    </r>
+  </si>
+  <si>
+    <t>Return to labeling</t>
+  </si>
+  <si>
+    <t>launch labelimg tool</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if the folder contains images the program launch directly the GUI for labeling; otherwise, he calls </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fragmentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to vectorize: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for now we use VGG16 Neural network; it creates a vector of 4096 elements for each image. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To check similarity: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">we use </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cosine similarity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(=1-cosine distance). Feat vectors are saved in matrix form in a txt file at  the specified path. Image similar are discarded; images not similar are kept and the feat vectors are saved at the path specified in the yaml file. Images are considered similar if cosine similarity&gt;0.95</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) in detection only obj detected with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confidence&gt;0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are kept. (2) the tracker assign ID based on the position of centroid of objects belonging to the same class. If  the dist of centroids in consecutive frames is &lt; th: it is considered the same obj and no new ID is assigned. (3) check similarity does not work for each frame in the video: it would be slow and unecessary; indeed, if a frame is similar, it is probable that also the next frame is similar. Since we want only not similar images, the similarity is checked each N, where N is a high number (2 times the fps of the video)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Program reads the path for weight file and the path for feature vector file set in conf file. The path for the weight file leads to a folder containing many weights; the program selects the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most recent weight file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The weight file is used for finding object in the video and to correctly classify them. Feature vector is used to suggest at the user new image to add at the training dataset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">at the end of the detection, the program asks the user if he wants to see the suggested images for labeling. For each of those image, also the annotation file exists (which comes from the detection part). If user select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the program launch labelimage tool </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">in this case, the labeling tool upload the images at the specified folder. There, it also finds the annotation (boxes on the objects) for each image, and the user can edit those labels or add more. </t>
+  </si>
+  <si>
+    <t>labeling tool is launched (open issue)</t>
+  </si>
+  <si>
+    <t>OPEN ISSUE: for now, we can't  launch the labelimg tool after detection in autonomous way. Moreover, even if e launch it manually, there is some error (I think the error is with the format of the txt file)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when the image is labeled, it should be saved in a folder where all the temporary images are saved. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path of this temporary folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is contained in the  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>configuration file of the specific asset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This folder contains all the images aiming at increasing the dataset size, but will actually be added at the training set when the amount of images overcomes a threshold (1000 images per class maybe, not decided yet). </t>
+    </r>
+  </si>
+  <si>
+    <t>when launching, we need to pass: (1) yaml file of the asset; (2) path of images to be labeled</t>
+  </si>
+  <si>
+    <t>the labeled images are saved in a folder whose path is read from the yaml file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the yaml file is used for: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read the classes, read the path where to save the final labeled images</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">program reads the path where to save the final weight file (on the google drive),  the feature vector path and training information such as: </t>
     </r>
     <r>
       <rPr>
@@ -182,407 +579,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">programs runs data augmentation. </t>
-  </si>
-  <si>
-    <t>train.py is run</t>
-  </si>
-  <si>
-    <t>it will take some time, depending on the amount of images. The main results of training are (1) the confusion matrix: ideal if diagonal value very high close to 1 and elements off the diagonal very low, but not 0;  (2) Precision recall curve;                      (3) decreasing validation learning curve; (4) clear learning bbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight file is saved at the path specified in the asset yaml file. </t>
-  </si>
-  <si>
-    <t>DETECTION</t>
-  </si>
-  <si>
-    <t>the program reads a general conf file where he reads the available assets and asks you to choose which asset user  wants for detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user chooses the asset. </t>
-  </si>
-  <si>
-    <t>detection is run. In the same time 3 processes (in sequence) are run: (1)detection (2)tracking (3)image similarity</t>
-  </si>
-  <si>
-    <t>(1) detection: find objects and write on the video a rectangular sourrunding the detected object; also assign the class name. (2) tracking: for each obj detected, the tracker assign an unique ID. It tries to  follow the objects frame by frame. (3) every N frames, check similarity is computed</t>
-  </si>
-  <si>
-    <t>(1) the results of detection is a video. (2) the results of the tracker are 2 json files, one containing general info, hence how many objects of a certain class were present, and another mode detailed, reporting for each detected objetc in which second of the video was; (3) the results of check similarities is a folder containing the frames from the video that are suggested to be labeled in order to increase the trainning dataset. If this folder is empty, a message is print out to the user telling that no images should be added from the current video.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call Image similarity before labeling. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>create_feat = True</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, the method iteratively creates the vectors for the images in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>img_path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and save in a temp matrix only if different, otherwise it deletes the image directly. If </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>create_feat=False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> this means that we already have the feature vectors of images and we only need to check similar images and remove them. T</t>
-    </r>
-  </si>
-  <si>
-    <t>SUB STEPS</t>
-  </si>
-  <si>
-    <t>If user uses a folder with images already labeled, he can see the rectangles on the image. Labels can be edited (both position than type)</t>
-  </si>
-  <si>
-    <t>program asks to choose the folder containing the data he wants to label</t>
-  </si>
-  <si>
-    <t>FRAGMENTATION</t>
-  </si>
-  <si>
-    <r>
-      <t>The program takes 1 frames each second from the provided video. The images are saved as year-month-day-hour-minute_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>original.jpg.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The image are saved in a folder named as: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>videoName_frames</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. The fragmentation method returns the path of the just created frames.</t>
-    </r>
-  </si>
-  <si>
-    <t>Return to labeling</t>
-  </si>
-  <si>
-    <t>launch labelimg tool</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">if the folder contains images the program launch directly the GUI for labeling; otherwise, he calls </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fragmentation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">to vectorize: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for now we use VGG16 Neural network; it creates a vector of 4096 elements for each image. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">To check similarity: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">we use </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">cosine similarity </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(=1-cosine distance). Feat vectors are saved in matrix form in a txt file at  the specified path. Image similar are discarded; images not similar are kept and the feat vectors are saved at the path specified in the yaml file. Images are considered similar if cosine similarity&gt;0.95</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(1) in detection only obj detected with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>confidence&gt;0.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are kept. (2) the tracker assign ID based on the position of centroid of objects belonging to the same class. If  the dist of centroids in consecutive frames is &lt; th: it is considered the same obj and no new ID is assigned. (3) check similarity does not work for each frame in the video: it would be slow and unecessary; indeed, if a frame is similar, it is probable that also the next frame is similar. Since we want only not similar images, the similarity is checked each N, where N is a high number (2 times the fps of the video)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Program reads the path for weight file and the path for feature vector file set in conf file. The path for the weight file leads to a folder containing many weights; the program selects the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>most recent weight file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. The weight file is used for finding object in the video and to correctly classify them. Feature vector is used to suggest at the user new image to add at the training dataset</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">at the end of the detection, the program asks the user if he wants to see the suggested images for labeling. For each of those image, also the annotation file exists (which comes from the detection part). If user select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, the program launch labelimage tool </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">in this case, the labeling tool upload the images at the specified folder. There, it also finds the annotation (boxes on the objects) for each image, and the user can edit those labels or add more. </t>
-  </si>
-  <si>
-    <t>labeling tool is launched (open issue)</t>
-  </si>
-  <si>
-    <t>OPEN ISSUE: for now, we can't  launch the labelimg tool after detection in autonomous way. Moreover, even if e launch it manually, there is some error (I think the error is with the format of the txt file)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">when the image is labeled, it should be saved in a folder where all the temporary images are saved. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>path of this temporary folder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is contained in the  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>configuration file of the specific asset.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This folder contains all the images aiming at increasing the dataset size, but will actually be added at the training set when the amount of images overcomes a threshold (1000 images per class maybe, not decided yet). </t>
-    </r>
-  </si>
-  <si>
-    <t>when launching, we need to pass: (1) yaml file of the asset; (2) path of images to be labeled</t>
-  </si>
-  <si>
-    <t>the labeled images are saved in a folder whose path is read from the yaml file</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the yaml file is used for: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read the classes, read the path where to save the final labeled images</t>
-    </r>
+    <t xml:space="preserve">so far, the best model was reached by selecting: 100 epochs, 64 batches and image size of 640*640px </t>
   </si>
 </sst>
 </file>
@@ -858,13 +855,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2897187</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>345861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1286,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1337,7 +1334,7 @@
     </row>
     <row r="3" spans="1:9" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1360,46 +1357,46 @@
     </row>
     <row r="5" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H9"/>
     </row>
@@ -1428,15 +1425,15 @@
     </row>
     <row r="13" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,85 +1443,80 @@
     </row>
     <row r="16" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="144" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="156" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="144" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="156" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="D23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4363E-7FF6-4D2B-BEC7-CB57362937F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445ECB7-D531-4947-BF57-D6E0EEA5CCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>STEP</t>
   </si>
@@ -580,6 +580,46 @@
   </si>
   <si>
     <t xml:space="preserve">so far, the best model was reached by selecting: 100 epochs, 64 batches and image size of 640*640px </t>
+  </si>
+  <si>
+    <t>augmentation is done only on training data. The transformation applied are: ____________</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">after each transformation, a copy of the image is saved. If gray scale is applied, the image will be called: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>original_name_gray.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Then the  program copies the txt file of the original images but the name of the txt becomes: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>original_name_gray.txt</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1285,14 +1325,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25.7109375" style="1"/>
-    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="44.5703125" style="1" customWidth="1"/>
@@ -1437,8 +1477,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445ECB7-D531-4947-BF57-D6E0EEA5CCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F205C85-1DE9-4730-A512-7EABF138B44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>STEP</t>
   </si>
@@ -620,13 +620,19 @@
       </rPr>
       <t>original_name_gray.txt</t>
     </r>
+  </si>
+  <si>
+    <t>before augment the program checks the field in the conf file that tells if the data has ever been augmented. If this field is set to false, the augmentation takes place</t>
+  </si>
+  <si>
+    <t>augmentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,8 +721,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +770,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -769,7 +794,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,8 +803,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -821,10 +847,14 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% - Colore 1" xfId="4" builtinId="31"/>
     <cellStyle name="60% - Colore 4" xfId="6" builtinId="44"/>
+    <cellStyle name="Colore 1" xfId="8" builtinId="29"/>
     <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Titolo" xfId="1" builtinId="15"/>
@@ -1323,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1477,92 +1507,104 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="96.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="144" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="156" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="22" spans="1:7" ht="156" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="26" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -5,35 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F205C85-1DE9-4730-A512-7EABF138B44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7CEC89-8A77-452C-999F-605BC75C68E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAF970FA-349E-491A-84BE-B32BF07A602C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>STEP</t>
   </si>
@@ -582,9 +574,6 @@
     <t xml:space="preserve">so far, the best model was reached by selecting: 100 epochs, 64 batches and image size of 640*640px </t>
   </si>
   <si>
-    <t>augmentation is done only on training data. The transformation applied are: ____________</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">after each transformation, a copy of the image is saved. If gray scale is applied, the image will be called: </t>
     </r>
@@ -626,13 +615,49 @@
   </si>
   <si>
     <t>augmentation</t>
+  </si>
+  <si>
+    <t>augmentation is done only on training data. The transformation applied are:   
+-prewitt                                             -HueSaturation
+-canny edge detection                  -RGBShift
+-RandomBrightnessContrast       -InvertImg
+-IAAAdditiveGaussianNoise       -RGBShift
+-GaussNoise             One should keep in mind that
+-MotionBlur              these are applied randomly
+-MedianBlur           with probability of P
+-Blur                          **we will add some more later***</t>
+  </si>
+  <si>
+    <t>DATASET BALANCING</t>
+  </si>
+  <si>
+    <t>In this process we call a sampler called imbalanced-dataset-sampler. This sampler is detecting the lowest represented class (let's say N pieces of images for that class) and then it randomly choses N images per each class. With this manner we undersample our whole dataset to the minimum represented one with a random process.</t>
+  </si>
+  <si>
+    <t>SPLIT DATASET</t>
+  </si>
+  <si>
+    <t>we split the dataset to train - val - test with given proportions randomly. All images are splitted including their labels.</t>
+  </si>
+  <si>
+    <t>** will fill here after finishing this process**</t>
+  </si>
+  <si>
+    <t>Also YOLO is doing some augmentations like:
+-HSV-Hue augmentation                   -image perspective
+-HSV-Saturation augmentation      -image flip up-down
+-HSV-Value augmentation               -image flip left-right
+-image rotation                                    -image mosaic
+-image translation                              -image mixup
+-image scale
+-image shear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,8 +760,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,6 +808,22 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -794,7 +843,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -804,8 +853,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -850,11 +901,19 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="40% - Colore 1" xfId="4" builtinId="31"/>
     <cellStyle name="60% - Colore 4" xfId="6" builtinId="44"/>
     <cellStyle name="Colore 1" xfId="8" builtinId="29"/>
+    <cellStyle name="Colore 2" xfId="9" builtinId="33"/>
+    <cellStyle name="Colore 6" xfId="10" builtinId="49"/>
     <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Titolo" xfId="1" builtinId="15"/>
@@ -1352,11 +1411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1BCCE-6C46-484C-8C13-A38ED5FE04C3}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1508,27 +1567,27 @@
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -1539,72 +1598,92 @@
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="1" t="s">
+      <c r="E18" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="96.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:5" ht="96.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="156" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:5" ht="156" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7CEC89-8A77-452C-999F-605BC75C68E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAA692-A20E-4CE3-9FB4-0AEDA7C886F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>STEP</t>
   </si>
@@ -651,6 +651,62 @@
 -image translation                              -image mixup
 -image scale
 -image shear</t>
+  </si>
+  <si>
+    <r>
+      <t>Some parameters for training such as batch size, epochs, img size are read from the configuration file od the asset. During the training, the program loads the training data in a Loader. Yolo takes one image at time and applies some more augmentation. These are called '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">on fly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'augmentation because the augmented version of the training images are not stored; they are handled as long as the train goes. After each epoc, yolo take the weight file and calculate the metrics (precision, recall) and the error by applying the detection (in this stage is better to call it as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inference)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the validation data ; this error is used to improve the model in the next epoch. At the end of the training, there will be some graphs where the metrics vs epoch and the error vs epochs are reported</t>
+    </r>
+  </si>
+  <si>
+    <t>the program asks the path for the video and also asks the user if he wants to specify the starting and ending point of the video.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in fact,   video recorded with drones, starts in the outside and usually takes few seconds to enter in the interested location. During these few seconds the video shows a chaotic environment. This results in the detection, a waste of time and resources. For this reason, the user is given the chance to choose the start point and end point of the interesting part of the video. </t>
+  </si>
+  <si>
+    <t>if the user wants to enter starting and ending point, the format he must use is MM:SS</t>
   </si>
 </sst>
 </file>
@@ -856,7 +912,7 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -906,6 +962,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1412,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1593,97 +1655,120 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="E19"/>
     </row>
     <row r="20" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="96.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="1:5" ht="96" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="156" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="25" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="156" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="27" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
+    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="30" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAA692-A20E-4CE3-9FB4-0AEDA7C886F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25A3CD-C1E6-44F8-9F05-B790A55559DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>STEP</t>
   </si>
@@ -708,12 +708,24 @@
   <si>
     <t>if the user wants to enter starting and ending point, the format he must use is MM:SS</t>
   </si>
+  <si>
+    <t>RETRAIN AN OLD MODEL</t>
+  </si>
+  <si>
+    <t>program reads if the model was already trained. If yes, the program checks if the model can be retrained (i.e. if the temporary stored pictures overcome a threshold). Otherwise it print out that the model is already traines and should not be trained again.</t>
+  </si>
+  <si>
+    <t>if the model can be retrained, several substeps will be performed: (1) split the img in temp folder in train test and valid; (2) augment training (3) add pictures in the training set (4) pass the freezing layers</t>
+  </si>
+  <si>
+    <t>not implemented yet.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,8 +836,15 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,8 +899,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -898,8 +922,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -911,8 +950,9 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -969,13 +1009,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="11" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="40% - Colore 1" xfId="4" builtinId="31"/>
     <cellStyle name="60% - Colore 4" xfId="6" builtinId="44"/>
     <cellStyle name="Colore 1" xfId="8" builtinId="29"/>
     <cellStyle name="Colore 2" xfId="9" builtinId="33"/>
     <cellStyle name="Colore 6" xfId="10" builtinId="49"/>
+    <cellStyle name="Input" xfId="11" builtinId="20"/>
     <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Titolo" xfId="1" builtinId="15"/>
@@ -1474,15 +1518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" style="1"/>
+    <col min="1" max="1" width="25.7109375" style="1"/>
+    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.85546875" style="1" customWidth="1"/>
@@ -1694,81 +1739,113 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" customFormat="1" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B28" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="96" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24" s="1" t="s">
+    <row r="29" spans="1:5" ht="96" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25" s="1" t="s">
+    <row r="30" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="156" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="31" spans="1:5" ht="156" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="32" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
+    <row r="34" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+    <row r="35" spans="2:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/e2e.xlsx
+++ b/e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia Ciaramella\PycharmProjects\yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25A3CD-C1E6-44F8-9F05-B790A55559DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A0685B-67FE-4635-B7AE-26FE9C56FD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,22 +79,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">before training, lunch </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IMG_SIMILARITY</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">run method called: </t>
     </r>
     <r>
@@ -637,9 +621,6 @@
     <t>SPLIT DATASET</t>
   </si>
   <si>
-    <t>we split the dataset to train - val - test with given proportions randomly. All images are splitted including their labels.</t>
-  </si>
-  <si>
     <t>** will fill here after finishing this process**</t>
   </si>
   <si>
@@ -719,6 +700,25 @@
   </si>
   <si>
     <t>not implemented yet.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">before training, launch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMG_SIMILARITY</t>
+    </r>
+  </si>
+  <si>
+    <t>we split the dataset to train - val - test with given proportions randomly. All images are splitted including their labels. 80% in training, 10% testing, 10% validation data</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="3" spans="1:9" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1593,46 +1593,46 @@
     </row>
     <row r="5" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9"/>
     </row>
@@ -1661,81 +1661,81 @@
     </row>
     <row r="13" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="15" t="s">
         <v>53</v>
       </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18"/>
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="E20"/>
     </row>
     <row r="21" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1743,7 +1743,7 @@
     </row>
     <row r="23" spans="1:5" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
@@ -1752,22 +1752,22 @@
     <row r="24" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="10" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1775,78 +1775,78 @@
     </row>
     <row r="28" spans="1:5" customFormat="1" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="96" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="156" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
